--- a/data/金砖四国汇率数据指标结果_BIS_自动生成的.xlsx
+++ b/data/金砖四国汇率数据指标结果_BIS_自动生成的.xlsx
@@ -6,16 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="中国" r:id="rId3" sheetId="1"/>
-    <sheet name="印度" r:id="rId4" sheetId="2"/>
-    <sheet name="俄罗斯" r:id="rId5" sheetId="3"/>
-    <sheet name="巴西" r:id="rId6" sheetId="4"/>
+    <sheet name="印度" r:id="rId3" sheetId="1"/>
+    <sheet name="俄罗斯" r:id="rId4" sheetId="2"/>
+    <sheet name="巴西" r:id="rId5" sheetId="3"/>
+    <sheet name="中国" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>时点开始</t>
   </si>
@@ -53,6 +53,72 @@
     <t>4</t>
   </si>
   <si>
+    <t>1973-01-02</t>
+  </si>
+  <si>
+    <t>1975-09-24</t>
+  </si>
+  <si>
+    <t>1992-03-02</t>
+  </si>
+  <si>
+    <t>2008-04-30</t>
+  </si>
+  <si>
+    <t>1975-09-23</t>
+  </si>
+  <si>
+    <t>1992-03-01</t>
+  </si>
+  <si>
+    <t>2008-04-29</t>
+  </si>
+  <si>
+    <t>2018-12-30</t>
+  </si>
+  <si>
+    <t>1992-07-01</t>
+  </si>
+  <si>
+    <t>1995-07-05</t>
+  </si>
+  <si>
+    <t>1998-08-17</t>
+  </si>
+  <si>
+    <t>2014-11-10</t>
+  </si>
+  <si>
+    <t>1995-07-04</t>
+  </si>
+  <si>
+    <t>1998-08-16</t>
+  </si>
+  <si>
+    <t>2014-11-09</t>
+  </si>
+  <si>
+    <t>1984-12-03</t>
+  </si>
+  <si>
+    <t>1992-05-05</t>
+  </si>
+  <si>
+    <t>1994-07-01</t>
+  </si>
+  <si>
+    <t>1999-02-01</t>
+  </si>
+  <si>
+    <t>1992-05-04</t>
+  </si>
+  <si>
+    <t>1994-06-30</t>
+  </si>
+  <si>
+    <t>1999-01-31</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -81,63 +147,6 @@
   </si>
   <si>
     <t>2017-05-01</t>
-  </si>
-  <si>
-    <t>2018-12-30</t>
-  </si>
-  <si>
-    <t>1973-01-02</t>
-  </si>
-  <si>
-    <t>1975-09-24</t>
-  </si>
-  <si>
-    <t>1992-03-02</t>
-  </si>
-  <si>
-    <t>1975-09-23</t>
-  </si>
-  <si>
-    <t>1992-03-01</t>
-  </si>
-  <si>
-    <t>2008-04-29</t>
-  </si>
-  <si>
-    <t>1992-07-01</t>
-  </si>
-  <si>
-    <t>1995-07-05</t>
-  </si>
-  <si>
-    <t>1998-08-17</t>
-  </si>
-  <si>
-    <t>1995-07-04</t>
-  </si>
-  <si>
-    <t>1998-08-16</t>
-  </si>
-  <si>
-    <t>2014-11-09</t>
-  </si>
-  <si>
-    <t>1984-12-03</t>
-  </si>
-  <si>
-    <t>1992-05-05</t>
-  </si>
-  <si>
-    <t>1994-07-01</t>
-  </si>
-  <si>
-    <t>1992-05-04</t>
-  </si>
-  <si>
-    <t>1994-06-30</t>
-  </si>
-  <si>
-    <t>1999-01-31</t>
   </si>
 </sst>
 </file>
@@ -220,28 +229,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>3.580589519650655</v>
+        <v>7.945573529411765</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8357041210570548</v>
+        <v>0.12783383847353377</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002241921397379913</v>
+        <v>0.0013382352941176472</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0031529365010184696</v>
+        <v>0.0027930518496058258</v>
       </c>
       <c r="H2" t="n">
-        <v>5.903406257202981E-4</v>
+        <v>1.8056946289252994E-4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1957424681575653E-4</v>
+        <v>4.501395275518438E-5</v>
       </c>
     </row>
     <row r="3">
@@ -249,28 +258,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>8.326161893711552</v>
+        <v>11.944825072886298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.013031952389479639</v>
+        <v>18.219509592722353</v>
       </c>
       <c r="F3" t="n">
-        <v>8.372842929375312E-5</v>
+        <v>0.004693430656934307</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0014625281691978526</v>
+        <v>0.009010160897594013</v>
       </c>
       <c r="H3" t="n">
-        <v>3.0010022459556644E-5</v>
+        <v>2.761904182547761E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.236429820449532E-5</v>
+        <v>2.799674720268307E-5</v>
       </c>
     </row>
     <row r="4">
@@ -278,28 +287,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>6.824308766122766</v>
+        <v>40.3408590697561</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4230047150133864</v>
+        <v>39.58971372703885</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.12812300551204E-4</v>
+        <v>0.006427414216761738</v>
       </c>
       <c r="G4" t="n">
-        <v>1.1108663479963968E-4</v>
+        <v>0.04280573130109082</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.350090595693185E-5</v>
+        <v>1.5305514070578554E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.455889322553148E-6</v>
+        <v>1.816796188945898E-5</v>
       </c>
     </row>
     <row r="5">
@@ -307,57 +316,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>6.630000731376975</v>
+        <v>57.05077857848518</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03750045618840505</v>
+        <v>78.72621178870156</v>
       </c>
       <c r="F5" t="n">
-        <v>7.367414187643013E-4</v>
+        <v>0.01086814207450694</v>
       </c>
       <c r="G5" t="n">
-        <v>2.406011956764729E-4</v>
+        <v>0.0809087059919071</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1563885341364911E-4</v>
+        <v>2.1451676324844678E-4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.501603843079647E-6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.649716175644028</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.046296302565713196</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-9.685416666666825E-5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.99239354630656E-4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-1.0710074587168223E-5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.775662529642138E-6</v>
+        <v>2.5796370682202552E-5</v>
       </c>
     </row>
   </sheetData>
@@ -405,28 +385,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>7.945573529411765</v>
+        <v>1.8553255031847133</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12783383847353377</v>
+        <v>2.1918512019931455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0013382352941176472</v>
+        <v>0.005640433121019108</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0027930518496058258</v>
+        <v>0.003130324821750942</v>
       </c>
       <c r="H2" t="n">
-        <v>1.8056946289252994E-4</v>
+        <v>0.00491227866922224</v>
       </c>
       <c r="I2" t="n">
-        <v>4.501395275518438E-5</v>
+        <v>7.109254017997823E-4</v>
       </c>
     </row>
     <row r="3">
@@ -434,28 +414,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>11.944825072886298</v>
+        <v>5.429421739130435</v>
       </c>
       <c r="E3" t="n">
-        <v>18.219509592722353</v>
+        <v>0.3330197289422453</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004693430656934307</v>
+        <v>0.01568118565135305</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009010160897594013</v>
+        <v>0.08279505787848249</v>
       </c>
       <c r="H3" t="n">
-        <v>2.761904182547761E-4</v>
+        <v>0.001369072993707194</v>
       </c>
       <c r="I3" t="n">
-        <v>2.799674720268307E-5</v>
+        <v>3.908068722479812E-4</v>
       </c>
     </row>
     <row r="4">
@@ -463,28 +443,57 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>40.3408590697561</v>
+        <v>28.978326112046165</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58971372703885</v>
+        <v>13.575495687567491</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006427414216761738</v>
+        <v>0.011637815970892378</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04280573130109082</v>
+        <v>0.1994463991781544</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5305514070578554E-4</v>
+        <v>5.390585050374095E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.816796188945898E-5</v>
+        <v>1.7500487117332473E-4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.02849628328612</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33.510939315539886</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.019665003759398496</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7772270630422182</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.4729683104368495E-4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.9626874068381413E-4</v>
       </c>
     </row>
   </sheetData>
@@ -532,28 +541,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8553255031847133</v>
+        <v>5.0529356025352114E-5</v>
       </c>
       <c r="E2" t="n">
-        <v>2.1918512019931455</v>
+        <v>1.865390984084754E-8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005640433121019108</v>
+        <v>4.802811239978331E-7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003130324821750942</v>
+        <v>2.334947825168632E-12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00491227866922224</v>
+        <v>0.0074722358493339944</v>
       </c>
       <c r="I2" t="n">
-        <v>7.109254017997823E-4</v>
+        <v>1.0399756173015186E-4</v>
       </c>
     </row>
     <row r="3">
@@ -561,28 +570,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>5.429421739130435</v>
+        <v>0.10915407928547491</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3330197289422453</v>
+        <v>0.0410801127479072</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01568118565135305</v>
+        <v>0.0011435424617524926</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08279505787848249</v>
+        <v>2.737277826514479E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001369072993707194</v>
+        <v>0.0034283581938123428</v>
       </c>
       <c r="I3" t="n">
-        <v>3.908068722479812E-4</v>
+        <v>1.0885279249786554E-4</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +599,57 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>28.978326112046165</v>
+        <v>1.029466</v>
       </c>
       <c r="E4" t="n">
-        <v>13.575495687567491</v>
+        <v>0.016050488703742385</v>
       </c>
       <c r="F4" t="n">
-        <v>0.011637815970892378</v>
+        <v>1.8418617109725678E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1994463991781544</v>
+        <v>6.965369794349374E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>5.390585050374095E-4</v>
+        <v>2.0268329499284054E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7500487117332473E-4</v>
+        <v>1.166190028328836E-4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.4480304875889844</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.44221160405420995</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.2440201492957445E-4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.399991097280616E-4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.823750163061972E-4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.3458438911343864E-4</v>
       </c>
     </row>
   </sheetData>
@@ -662,25 +700,25 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0529356025352114E-5</v>
+        <v>3.580589519650655</v>
       </c>
       <c r="E2" t="n">
-        <v>1.865390984084754E-8</v>
+        <v>1.8357041210570548</v>
       </c>
       <c r="F2" t="n">
-        <v>4.802811239978331E-7</v>
+        <v>0.002241921397379913</v>
       </c>
       <c r="G2" t="n">
-        <v>2.334947825168632E-12</v>
+        <v>0.0031529365010184696</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0074722358493339944</v>
+        <v>5.903406257202981E-4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0399756173015186E-4</v>
+        <v>1.1957424681575653E-4</v>
       </c>
     </row>
     <row r="3">
@@ -691,25 +729,25 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10915407928547491</v>
+        <v>8.326161893711552</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0410801127479072</v>
+        <v>0.013031952389479639</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0011435424617524926</v>
+        <v>8.372842929375312E-5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.737277826514479E-4</v>
+        <v>0.0014625281691978526</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0034283581938123428</v>
+        <v>3.0010022459556644E-5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0885279249786554E-4</v>
+        <v>4.236429820449532E-5</v>
       </c>
     </row>
     <row r="4">
@@ -720,25 +758,83 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>1.029466</v>
+        <v>6.824308766122766</v>
       </c>
       <c r="E4" t="n">
-        <v>0.016050488703742385</v>
+        <v>0.4230047150133864</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8418617109725678E-4</v>
+        <v>-4.12812300551204E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>6.965369794349374E-4</v>
+        <v>1.1108663479963968E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.0268329499284054E-4</v>
+        <v>-5.350090595693185E-5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.166190028328836E-4</v>
+        <v>2.455889322553148E-6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.630000731376975</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03750045618840505</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.367414187643013E-4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.406011956764729E-4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.1563885341364911E-4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.501603843079647E-6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.649716175644028</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.046296302565713196</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-9.685416666666825E-5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.99239354630656E-4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1.0710074587168223E-5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.775662529642138E-6</v>
       </c>
     </row>
   </sheetData>

--- a/data/金砖四国汇率数据指标结果_BIS_自动生成的.xlsx
+++ b/data/金砖四国汇率数据指标结果_BIS_自动生成的.xlsx
@@ -7,12 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="中国" r:id="rId3" sheetId="1"/>
+    <sheet name="印度" r:id="rId4" sheetId="2"/>
+    <sheet name="俄罗斯" r:id="rId5" sheetId="3"/>
+    <sheet name="巴西" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>时点开始</t>
   </si>
@@ -81,6 +84,69 @@
   </si>
   <si>
     <t>2018-12-30</t>
+  </si>
+  <si>
+    <t>1973-01-02</t>
+  </si>
+  <si>
+    <t>1975-09-24</t>
+  </si>
+  <si>
+    <t>1992-03-02</t>
+  </si>
+  <si>
+    <t>2008-04-30</t>
+  </si>
+  <si>
+    <t>1975-09-23</t>
+  </si>
+  <si>
+    <t>1992-03-01</t>
+  </si>
+  <si>
+    <t>2008-04-29</t>
+  </si>
+  <si>
+    <t>1992-07-01</t>
+  </si>
+  <si>
+    <t>1995-07-05</t>
+  </si>
+  <si>
+    <t>1998-08-17</t>
+  </si>
+  <si>
+    <t>2014-11-10</t>
+  </si>
+  <si>
+    <t>1995-07-04</t>
+  </si>
+  <si>
+    <t>1998-08-16</t>
+  </si>
+  <si>
+    <t>2014-11-09</t>
+  </si>
+  <si>
+    <t>1984-12-03</t>
+  </si>
+  <si>
+    <t>1992-05-05</t>
+  </si>
+  <si>
+    <t>1994-07-01</t>
+  </si>
+  <si>
+    <t>1999-02-01</t>
+  </si>
+  <si>
+    <t>1992-05-04</t>
+  </si>
+  <si>
+    <t>1994-06-30</t>
+  </si>
+  <si>
+    <t>1999-01-31</t>
   </si>
 </sst>
 </file>
@@ -306,4 +372,472 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.945573529411765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.12783383847353377</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0013421828908554575</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0028012978043860035</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.8110211617539874E-4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.5146836806124825E-5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.945557715674362</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.22172838965545</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.004197860962566845</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0063059574376796695</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.7532765606147594E-4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.7822446401918762E-5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.34430890119541</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39.55056707865333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0034375934602245005</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.017347685958808062</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.1109670701270833E-4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.3073112152032468E-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.05687796376281</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78.65332700528414</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.010820152325155622</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.08075506323502146</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.135467663219792E-4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.5787090469238667E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8553255031847133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.1918512019931455</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.005635683269476373</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0031381780391425197</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.00492060451398365</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.127093967520018E-4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.430530472636816</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3324436376132259</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0021631382316313823</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.995153228386067E-5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.0323193218942145E-4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.3823601910328446E-6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.98378265993266</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.454901882896602</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.009552348087563146</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.051735843620725516</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.573206960321278E-4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.6953434134133998E-4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.04351460586011</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33.30355969654381</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.022673206244087037</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7792820797464801</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.965228937953368E-4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.9678739165285313E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.0529356025352114E-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.865390984084754E-8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.7662140130151847E-7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.308989516525751E-12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.007475583510009333</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.0407919621733816E-4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1093542182658379</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0411344366853964</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0018039137037037037</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.3199218094075453E-5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.013062640445319922</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.041825192504328E-5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0295134029590949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.016061883618113615</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.756097560975609E-4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.717181959299969E-5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.024858446314798E-4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.990658243896999E-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.4481047130921434</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4422703779141873</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.748492381356442E-4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.36784889421414E-4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.0001398258058306E-4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.341317156494833E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/金砖四国汇率数据指标结果_BIS_自动生成的.xlsx
+++ b/data/金砖四国汇率数据指标结果_BIS_自动生成的.xlsx
@@ -26,19 +26,19 @@
     <t>样本均值</t>
   </si>
   <si>
-    <t>样本方差</t>
+    <t>样本标准差</t>
   </si>
   <si>
     <t>样本差分均值</t>
   </si>
   <si>
-    <t>样本差分方差</t>
+    <t>样本差分标准差</t>
   </si>
   <si>
     <t>样本日变化率均值</t>
   </si>
   <si>
-    <t>样本日变化率方差</t>
+    <t>样本日变化率标准差</t>
   </si>
   <si>
     <t>1</t>
@@ -131,7 +131,7 @@
     <t>1984-12-03</t>
   </si>
   <si>
-    <t>1992-05-05</t>
+    <t>1991-09-02</t>
   </si>
   <si>
     <t>1994-07-01</t>
@@ -140,7 +140,7 @@
     <t>1999-02-01</t>
   </si>
   <si>
-    <t>1992-05-04</t>
+    <t>1991-09-01</t>
   </si>
   <si>
     <t>1994-06-30</t>
@@ -238,19 +238,19 @@
         <v>3.580589519650655</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8357041210570548</v>
+        <v>1.3548815893121637</v>
       </c>
       <c r="F2" t="n">
         <v>0.0013335518102372034</v>
       </c>
       <c r="G2" t="n">
-        <v>5.19421330996066E-4</v>
+        <v>0.022790816812832005</v>
       </c>
       <c r="H2" t="n">
         <v>4.330903295053916E-4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1753106358869125E-5</v>
+        <v>0.006461664364455115</v>
       </c>
     </row>
     <row r="3">
@@ -267,19 +267,19 @@
         <v>8.327020581538461</v>
       </c>
       <c r="E3" t="n">
-        <v>0.010878200594190082</v>
+        <v>0.10429861261872127</v>
       </c>
       <c r="F3" t="n">
         <v>-1.5224076607387149E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>7.283315123588795E-5</v>
+        <v>0.008534234074355352</v>
       </c>
       <c r="H3" t="n">
         <v>-1.7387467740583022E-5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0579106308084196E-6</v>
+        <v>0.001028547826213453</v>
       </c>
     </row>
     <row r="4">
@@ -296,19 +296,19 @@
         <v>6.823744351340848</v>
       </c>
       <c r="E4" t="n">
-        <v>0.42234887763286955</v>
+        <v>0.6498837416283543</v>
       </c>
       <c r="F4" t="n">
         <v>-7.388339813374807E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>5.58984184730105E-5</v>
+        <v>0.0074765244915676226</v>
       </c>
       <c r="H4" t="n">
         <v>-1.0317162514487747E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2546624712028025E-6</v>
+        <v>0.001120117168515331</v>
       </c>
     </row>
     <row r="5">
@@ -325,19 +325,19 @@
         <v>6.630951701357466</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03718395844183351</v>
+        <v>0.19283142493336897</v>
       </c>
       <c r="F5" t="n">
         <v>0.001293455782312926</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5341394531224502E-4</v>
+        <v>0.012386038321927032</v>
       </c>
       <c r="H5" t="n">
         <v>1.975533359814044E-4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4818628469856306E-6</v>
+        <v>0.0018659750392182716</v>
       </c>
     </row>
     <row r="6">
@@ -354,19 +354,19 @@
         <v>6.649139394366197</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04626284787382998</v>
+        <v>0.21508800030180666</v>
       </c>
       <c r="F6" t="n">
         <v>-4.141411764705877E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.0198960869131026E-4</v>
+        <v>0.017377848218099682</v>
       </c>
       <c r="H6" t="n">
         <v>-2.6024853249262943E-6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.841057289663176E-6</v>
+        <v>0.0026155414907172046</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>7.945573529411765</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12783383847353377</v>
+        <v>0.3575385831956235</v>
       </c>
       <c r="F2" t="n">
         <v>0.0013421828908554575</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0028012978043860035</v>
+        <v>0.05292728789940028</v>
       </c>
       <c r="H2" t="n">
         <v>1.8110211617539874E-4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5146836806124825E-5</v>
+        <v>0.006719139588230388</v>
       </c>
     </row>
     <row r="3">
@@ -452,19 +452,19 @@
         <v>11.945557715674362</v>
       </c>
       <c r="E3" t="n">
-        <v>18.22172838965545</v>
+        <v>4.268691648462729</v>
       </c>
       <c r="F3" t="n">
         <v>0.004197860962566845</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0063059574376796695</v>
+        <v>0.0794100587940827</v>
       </c>
       <c r="H3" t="n">
         <v>2.7532765606147594E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7822446401918762E-5</v>
+        <v>0.0052746987024775895</v>
       </c>
     </row>
     <row r="4">
@@ -481,19 +481,19 @@
         <v>40.34430890119541</v>
       </c>
       <c r="E4" t="n">
-        <v>39.55056707865333</v>
+        <v>6.288924159079463</v>
       </c>
       <c r="F4" t="n">
         <v>0.0034375934602245005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.017347685958808062</v>
+        <v>0.1317106144500437</v>
       </c>
       <c r="H4" t="n">
         <v>1.1109670701270833E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3073112152032468E-5</v>
+        <v>0.0036156758914527264</v>
       </c>
     </row>
     <row r="5">
@@ -510,19 +510,19 @@
         <v>57.05687796376281</v>
       </c>
       <c r="E5" t="n">
-        <v>78.65332700528414</v>
+        <v>8.868671095789049</v>
       </c>
       <c r="F5" t="n">
         <v>0.010820152325155622</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08075506323502146</v>
+        <v>0.2841743535842414</v>
       </c>
       <c r="H5" t="n">
         <v>2.135467663219792E-4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5787090469238667E-5</v>
+        <v>0.005078099099982066</v>
       </c>
     </row>
   </sheetData>
@@ -579,19 +579,19 @@
         <v>1.8553255031847133</v>
       </c>
       <c r="E2" t="n">
-        <v>2.1918512019931455</v>
+        <v>1.4804901897659253</v>
       </c>
       <c r="F2" t="n">
         <v>0.005635683269476373</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0031381780391425197</v>
+        <v>0.05601944340264833</v>
       </c>
       <c r="H2" t="n">
         <v>0.00492060451398365</v>
       </c>
       <c r="I2" t="n">
-        <v>7.127093967520018E-4</v>
+        <v>0.02669661770247313</v>
       </c>
     </row>
     <row r="3">
@@ -608,19 +608,19 @@
         <v>5.430530472636816</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3324436376132259</v>
+        <v>0.5765792552747852</v>
       </c>
       <c r="F3" t="n">
         <v>0.0021631382316313823</v>
       </c>
       <c r="G3" t="n">
-        <v>2.995153228386067E-5</v>
+        <v>0.005472799309664175</v>
       </c>
       <c r="H3" t="n">
         <v>4.0323193218942145E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3823601910328446E-6</v>
+        <v>0.0011757381473069778</v>
       </c>
     </row>
     <row r="4">
@@ -637,19 +637,19 @@
         <v>28.98378265993266</v>
       </c>
       <c r="E4" t="n">
-        <v>13.454901882896602</v>
+        <v>3.6680924038110874</v>
       </c>
       <c r="F4" t="n">
         <v>0.009552348087563146</v>
       </c>
       <c r="G4" t="n">
-        <v>0.051735843620725516</v>
+        <v>0.22745514639314168</v>
       </c>
       <c r="H4" t="n">
         <v>5.573206960321278E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6953434134133998E-4</v>
+        <v>0.013020535370764905</v>
       </c>
     </row>
     <row r="5">
@@ -666,19 +666,19 @@
         <v>62.04351460586011</v>
       </c>
       <c r="E5" t="n">
-        <v>33.30355969654381</v>
+        <v>5.770923643277895</v>
       </c>
       <c r="F5" t="n">
         <v>0.022673206244087037</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7792820797464801</v>
+        <v>0.8827695507585658</v>
       </c>
       <c r="H5" t="n">
         <v>4.965228937953368E-4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9678739165285313E-4</v>
+        <v>0.014028092944261994</v>
       </c>
     </row>
   </sheetData>
@@ -732,22 +732,22 @@
         <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0529356025352114E-5</v>
+        <v>1.3607123474806433E-5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.865390984084754E-8</v>
+        <v>3.084803527771157E-5</v>
       </c>
       <c r="F2" t="n">
-        <v>4.7662140130151847E-7</v>
+        <v>8.527177883124626E-8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.308989516525751E-12</v>
+        <v>2.475286142717997E-7</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007475583510009333</v>
+        <v>0.007126490417247139</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0407919621733816E-4</v>
+        <v>0.010125995995878543</v>
       </c>
     </row>
     <row r="3">
@@ -761,22 +761,22 @@
         <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1093542182658379</v>
+        <v>0.08365969337955777</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0411344366853964</v>
+        <v>0.1831935973807139</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0018039137037037037</v>
+        <v>0.0013788624945352192</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3199218094075453E-5</v>
+        <v>0.0032652795332421517</v>
       </c>
       <c r="H3" t="n">
-        <v>0.013062640445319922</v>
+        <v>0.012571365731446831</v>
       </c>
       <c r="I3" t="n">
-        <v>2.041825192504328E-5</v>
+        <v>0.006438554939266715</v>
       </c>
     </row>
     <row r="4">
@@ -793,19 +793,19 @@
         <v>1.0295134029590949</v>
       </c>
       <c r="E4" t="n">
-        <v>0.016061883618113615</v>
+        <v>0.12673548681452096</v>
       </c>
       <c r="F4" t="n">
         <v>9.756097560975609E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>9.717181959299969E-5</v>
+        <v>0.009857576760695283</v>
       </c>
       <c r="H4" t="n">
         <v>7.024858446314798E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.990658243896999E-5</v>
+        <v>0.007064459104487051</v>
       </c>
     </row>
     <row r="5">
@@ -822,19 +822,19 @@
         <v>2.4481047130921434</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4422703779141873</v>
+        <v>0.6650341178572625</v>
       </c>
       <c r="F5" t="n">
         <v>3.748492381356442E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>9.36784889421414E-4</v>
+        <v>0.0306069418501982</v>
       </c>
       <c r="H5" t="n">
         <v>2.0001398258058306E-4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.341317156494833E-4</v>
+        <v>0.011581524754948431</v>
       </c>
     </row>
   </sheetData>

--- a/data/金砖四国汇率数据指标结果_BIS_自动生成的.xlsx
+++ b/data/金砖四国汇率数据指标结果_BIS_自动生成的.xlsx
@@ -7,12 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="巴西" r:id="rId3" sheetId="1"/>
+    <sheet name="中国" r:id="rId4" sheetId="2"/>
+    <sheet name="印度" r:id="rId5" sheetId="3"/>
+    <sheet name="俄罗斯" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>时点开始</t>
   </si>
@@ -108,6 +111,75 @@
   </si>
   <si>
     <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>1981-01-02</t>
+  </si>
+  <si>
+    <t>1994-01-03</t>
+  </si>
+  <si>
+    <t>2005-07-21</t>
+  </si>
+  <si>
+    <t>2010-06-21</t>
+  </si>
+  <si>
+    <t>2015-08-11</t>
+  </si>
+  <si>
+    <t>1993-12-31</t>
+  </si>
+  <si>
+    <t>2005-07-20</t>
+  </si>
+  <si>
+    <t>2010-06-18</t>
+  </si>
+  <si>
+    <t>2015-08-10</t>
+  </si>
+  <si>
+    <t>1973-01-02</t>
+  </si>
+  <si>
+    <t>1975-09-24</t>
+  </si>
+  <si>
+    <t>1992-03-02</t>
+  </si>
+  <si>
+    <t>2009-02-02</t>
+  </si>
+  <si>
+    <t>1975-09-23</t>
+  </si>
+  <si>
+    <t>1992-02-28</t>
+  </si>
+  <si>
+    <t>2009-01-30</t>
+  </si>
+  <si>
+    <t>1992-07-01</t>
+  </si>
+  <si>
+    <t>1995-07-06</t>
+  </si>
+  <si>
+    <t>1998-08-17</t>
+  </si>
+  <si>
+    <t>2014-11-10</t>
+  </si>
+  <si>
+    <t>1995-07-05</t>
+  </si>
+  <si>
+    <t>1998-08-14</t>
+  </si>
+  <si>
+    <t>2014-11-07</t>
   </si>
 </sst>
 </file>
@@ -420,4 +492,501 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.580589519650655</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.3548815893121637</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0013335518102372034</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.022790816812832005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.330903295053916E-4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.006461664364455115</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.327020581538461</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.10429861261872127</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1.5224076607387149E-4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.008534234074355352</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.7387467740583022E-5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001028547826213453</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.360312218949044</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5145222149587778</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.001022894820717132</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.007007699782334235</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1.3682292221259507E-4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.753310340686947E-4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.3120289058466215</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1901296995989138</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-4.4675E-4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.007855269006667448</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-6.797208426236439E-5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0012372735440237322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.639877919354839</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.20414277274138926</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.375559400230683E-4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.015041584040368254</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.920118070663997E-5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0022646265386161058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.945573529411765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3575385831956235</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0013421828908554575</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05292728789940028</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.8110211617539874E-4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.006719139588230388</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.945557715674362</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.268691648462729</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.004197860962566845</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0794100587940827</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.7532765606147594E-4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0052746987024775895</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.581711660610296</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.272033143055429</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.005216663327120224</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1471286939303719</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.5080927241268574E-4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0038504508388279538</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.93279142001576</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.556212268244074</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.008435627906976747</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2799331016411761</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.5561724781338294E-4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.004878765199530477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.858757659033079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.4826725444811069</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.005647627551020408</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05598465860360317</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.004918544330790126</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.026679626969122565</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.431623287671233</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5761048393334256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.002165835411471322</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.005475680415968465</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.037347151472636E-4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0011763854553989662</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.98378265993266</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.6680924038110874</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.009552348087563146</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.22745514639314168</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.573206960321278E-4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.013020535370764905</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.04351460586011</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.770923643277895</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.022673206244087037</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8827695507585658</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.965228937953368E-4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.014028092944261994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>